--- a/Fase 1/Evidencias Grupales/PLANILLA DE EVALUACIàN FASE 1.xlsx
+++ b/Fase 1/Evidencias Grupales/PLANILLA DE EVALUACIàN FASE 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/w_bascunan_profesor_duoc_cl/Documents/DUOC/2024/2024-2 Capstone/Evaluaciones/GRUPO 1/Fase 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://duoccl0-my.sharepoint.com/personal/w_bascunan_profesor_duoc_cl/Documents/DUOC/2024/2024-2 Capstone/Evaluaciones/GRUPO 3/FASE 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="637" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF166089-B58C-5843-88EE-5B4211FD0966}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="8_{2EFDF332-31E9-4C74-A6B5-E695634C1C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B61EB4D-C211-914A-A2AA-B33E7FD02C66}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
   <si>
     <t>PUNTOS</t>
   </si>
@@ -378,25 +378,31 @@
     <t>El desarrollo del plan de trabajo no permite determinar si el logro de los objetivos propuestos del proyecto son alcanzables en los tiempos para su desarrollo y no demuestran hitos claros para demostrar el estado de avance</t>
   </si>
   <si>
-    <t>GONZALEZ GOMEZ ALONSO DAMIAN FRAZUL</t>
-  </si>
-  <si>
-    <t>FUENTES VIVANCO JUAN PABLO FAVIO</t>
-  </si>
-  <si>
-    <t>SANDOVAL RETAMAL PAULO ANDRES</t>
-  </si>
-  <si>
     <t>Punto</t>
   </si>
   <si>
     <t>Observación</t>
   </si>
   <si>
-    <t>Si bien determinan las evidencias y su justificación, deben mencionar el detalle de diagramas, modelos, entregas de código fuente, scripts de BD y configuraciones de server, que son parte de la solución</t>
-  </si>
-  <si>
     <t>El documento esta correcto en términos de alineación y ortografía, pero deben eliminar todos los comentarios instructivos del documento. Independiente a que existe una plantilla, deben entregar un informe de acuerdo a su perfil de ingenieros.</t>
+  </si>
+  <si>
+    <t>OLIVA GODOY FLAVIO</t>
+  </si>
+  <si>
+    <t>TORO GOMEZ MATIAS NICOLAS</t>
+  </si>
+  <si>
+    <t>El objetivo general debe ser uno, en el descrito se define mas de uno.</t>
+  </si>
+  <si>
+    <t>Indican Scrum y como lo harán, pero no justifican claramente porque es la metodología adecuada. También mencionan que puede ir adaptandose sobre la marcha, pero mas abajo detallan que ya tienen los requerimientos.</t>
+  </si>
+  <si>
+    <t>Si bien determinan las evidencias y su justificación, deben mencionar el detalle de diagramas, modelos, entregas de código fuente, scripts de BD y configuraciones de server, que son parte de la solución, todos los entregables deben ser mencionados</t>
+  </si>
+  <si>
+    <t>El plan de trabajo no incluye todas las tareas que realizarpan para el proyecto, es de muy alto nivel y es dificil identificar que es lo que hará cada integrante y el tiempo asociado. Considerando que son solo 2 integrantes, esto debe ser mas detallado.</t>
   </si>
 </sst>
 </file>
@@ -1121,9 +1127,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1132,15 +1135,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1522,7 +1528,7 @@
   <dimension ref="A2:K929"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1567,11 +1573,11 @@
         <v>1</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C4" s="6">
         <f>EVALUACION1!$C$24</f>
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="D4" s="6">
         <f>$C$35</f>
@@ -1579,7 +1585,7 @@
       </c>
       <c r="E4" s="49">
         <f>C4*C$2+D4*D$2</f>
-        <v>6.6999999999999993</v>
+        <v>6.0250000000000004</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1588,11 +1594,11 @@
         <v>2</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="6">
         <f>EVALUACION1!$C$24</f>
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="D5" s="6">
         <f>C47</f>
@@ -1600,7 +1606,7 @@
       </c>
       <c r="E5" s="49">
         <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
-        <v>6.6999999999999993</v>
+        <v>6.0250000000000004</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1608,12 +1614,10 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="51" t="s">
-        <v>97</v>
-      </c>
+      <c r="B6" s="51"/>
       <c r="C6" s="6">
         <f>EVALUACION1!$C$24</f>
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="D6" s="6">
         <f>C58</f>
@@ -1621,7 +1625,7 @@
       </c>
       <c r="E6" s="49">
         <f t="shared" si="0"/>
-        <v>6.6999999999999993</v>
+        <v>6.0250000000000004</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1630,22 +1634,22 @@
         <v>12</v>
       </c>
       <c r="B11" s="15"/>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="68"/>
     </row>
     <row r="12" spans="1:11" outlineLevel="1">
-      <c r="A12" s="69"/>
+      <c r="A12" s="70"/>
       <c r="B12" s="25" t="s">
         <v>15</v>
       </c>
@@ -1653,19 +1657,19 @@
       <c r="D12" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="67"/>
+      <c r="G12" s="68"/>
       <c r="H12" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="I12" s="67"/>
+      <c r="I12" s="68"/>
       <c r="J12" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K12" s="67"/>
+      <c r="K12" s="68"/>
     </row>
     <row r="13" spans="1:11" ht="26" outlineLevel="1">
       <c r="A13" s="74"/>
@@ -1800,23 +1804,23 @@
         <v xml:space="preserve">5. Formula objetivos claros, concisos y coherentes con la disciplina y la situación a abordar. </v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="E16" s="17">
+        <v/>
+      </c>
+      <c r="E16" s="17" t="str">
         <f>IF(D16="X",100*0.05,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F16" s="17" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G16" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="G16" s="17">
         <f>IF(F16="X",60*0.05,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="H16" s="17" t="str">
         <f t="shared" si="3"/>
@@ -1842,23 +1846,23 @@
         <v>6. Propone una metodología de trabajo que permite alcanzar los objetivos propuestos y es pertinente con los requerimientos disciplinares.</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D17" s="17" t="str">
         <f t="shared" ref="D17:D22" si="12">IF($C17=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E17" s="17">
+        <v/>
+      </c>
+      <c r="E17" s="17" t="str">
         <f t="shared" ref="E17" si="13">IF(D17="X",100*0.1,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="F17" s="17" t="str">
         <f t="shared" ref="F17:F22" si="14">IF($C17=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G17" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="G17" s="17">
         <f t="shared" ref="G17" si="15">IF(F17="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H17" s="17" t="str">
         <f t="shared" ref="H17:H22" si="16">IF($C17=ML,"X","")</f>
@@ -1968,23 +1972,23 @@
         <v xml:space="preserve">9. Utiliza reglas de redacción, ortografía (literal, puntual, acentual) y las normas para citas y referencias. </v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="17" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E20" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="E20" s="17">
         <f>IF(D20="X",100*0.05,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="F20" s="17" t="str">
         <f t="shared" si="14"/>
-        <v>X</v>
-      </c>
-      <c r="G20" s="17">
+        <v/>
+      </c>
+      <c r="G20" s="17" t="str">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="H20" s="17" t="str">
         <f t="shared" si="16"/>
@@ -2053,23 +2057,23 @@
 acuerdo a los tiempos para su desarrollo</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D22" s="17" t="str">
         <f t="shared" si="12"/>
-        <v>X</v>
-      </c>
-      <c r="E22" s="17">
+        <v/>
+      </c>
+      <c r="E22" s="17" t="str">
         <f>IF(D22="X",100*0.1,"")</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="F22" s="17" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="G22" s="17" t="str">
+        <v>X</v>
+      </c>
+      <c r="G22" s="17">
         <f>IF(F22="X",60*0.1,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="H22" s="17" t="str">
         <f t="shared" si="16"/>
@@ -2089,23 +2093,23 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A23" s="69"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="43">
         <f>E23+G23+I23+K23</f>
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D23" s="20"/>
       <c r="E23" s="20">
         <f>SUM(E13:E22)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F23" s="20"/>
       <c r="G23" s="20">
         <f>SUM(G13:G22)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H23" s="20"/>
       <c r="I23" s="20">
@@ -2125,65 +2129,65 @@
       </c>
       <c r="C24" s="21">
         <f>VLOOKUP(C23,ESCALA_IEP!A2:B142,2,FALSE)</f>
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="26" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="27" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="60" t="str">
+      <c r="C27" s="59" t="str">
         <f>$B$4</f>
-        <v>GONZALEZ GOMEZ ALONSO DAMIAN FRAZUL</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
+        <v>OLIVA GODOY FLAVIO</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="61"/>
     </row>
     <row r="28" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A28" s="69"/>
+      <c r="A28" s="70"/>
       <c r="B28" s="58"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="64"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A29" s="69"/>
+      <c r="A29" s="70"/>
       <c r="B29" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A30" s="69"/>
+      <c r="A30" s="70"/>
       <c r="B30" s="16" t="s">
         <v>15</v>
       </c>
@@ -2191,22 +2195,22 @@
       <c r="D30" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="67"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="67"/>
+      <c r="G30" s="68"/>
       <c r="H30" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="67"/>
+      <c r="I30" s="68"/>
       <c r="J30" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" ht="24.5" customHeight="1">
-      <c r="A31" s="69"/>
+      <c r="A31" s="70"/>
       <c r="B31" s="40" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2248,7 +2252,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="25.75" customHeight="1">
-      <c r="A32" s="69"/>
+      <c r="A32" s="70"/>
       <c r="B32" s="40" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2290,7 +2294,7 @@
       </c>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="69"/>
+      <c r="A33" s="70"/>
       <c r="B33" s="40" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
@@ -2332,7 +2336,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A34" s="69"/>
+      <c r="A34" s="70"/>
       <c r="B34" s="22" t="s">
         <v>17</v>
       </c>
@@ -2381,59 +2385,59 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" customHeight="1"/>
     <row r="39" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B39" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="60" t="str">
+      <c r="C39" s="59" t="str">
         <f>B5</f>
-        <v>FUENTES VIVANCO JUAN PABLO FAVIO</v>
-      </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="62"/>
+        <v>TORO GOMEZ MATIAS NICOLAS</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A40" s="69"/>
+      <c r="A40" s="70"/>
       <c r="B40" s="58"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="64"/>
-      <c r="F40" s="64"/>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="64"/>
-      <c r="J40" s="64"/>
-      <c r="K40" s="65"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="64"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A41" s="69"/>
+      <c r="A41" s="70"/>
       <c r="B41" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="70"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A42" s="69"/>
+      <c r="A42" s="70"/>
       <c r="B42" s="16" t="s">
         <v>15</v>
       </c>
@@ -2441,22 +2445,22 @@
       <c r="D42" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="67"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="67"/>
+      <c r="G42" s="68"/>
       <c r="H42" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="67"/>
+      <c r="I42" s="68"/>
       <c r="J42" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K42" s="67"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="1:11" ht="25.75" customHeight="1">
-      <c r="A43" s="69"/>
+      <c r="A43" s="70"/>
       <c r="B43" s="40" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2498,7 +2502,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" ht="26">
-      <c r="A44" s="69"/>
+      <c r="A44" s="70"/>
       <c r="B44" s="40" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2540,7 +2544,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A45" s="69"/>
+      <c r="A45" s="70"/>
       <c r="B45" s="40" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
@@ -2582,7 +2586,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A46" s="69"/>
+      <c r="A46" s="70"/>
       <c r="B46" s="22" t="s">
         <v>17</v>
       </c>
@@ -2630,59 +2634,59 @@
       <c r="C49" s="24"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="60" t="str">
+      <c r="C50" s="59">
         <f>B6</f>
-        <v>SANDOVAL RETAMAL PAULO ANDRES</v>
-      </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
-      <c r="J50" s="61"/>
-      <c r="K50" s="62"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="61"/>
     </row>
     <row r="51" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A51" s="69"/>
+      <c r="A51" s="70"/>
       <c r="B51" s="58"/>
-      <c r="C51" s="63"/>
-      <c r="D51" s="64"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="64"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="65"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="64"/>
     </row>
     <row r="52" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A52" s="69"/>
+      <c r="A52" s="70"/>
       <c r="B52" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="65" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="70"/>
-      <c r="H52" s="70"/>
-      <c r="I52" s="70"/>
-      <c r="J52" s="70"/>
-      <c r="K52" s="67"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="67"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="68"/>
     </row>
     <row r="53" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A53" s="69"/>
+      <c r="A53" s="70"/>
       <c r="B53" s="16" t="s">
         <v>15</v>
       </c>
@@ -2690,22 +2694,22 @@
       <c r="D53" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="67"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="67"/>
+      <c r="G53" s="68"/>
       <c r="H53" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="67"/>
+      <c r="I53" s="68"/>
       <c r="J53" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="K53" s="67"/>
+      <c r="K53" s="68"/>
     </row>
     <row r="54" spans="1:11" ht="25.75" customHeight="1">
-      <c r="A54" s="69"/>
+      <c r="A54" s="70"/>
       <c r="B54" s="40" t="str">
         <f>RUBRICA!A7</f>
         <v>3. Relaciona el Proyecto APT con sus intereses profesionales. *</v>
@@ -2747,7 +2751,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="26">
-      <c r="A55" s="69"/>
+      <c r="A55" s="70"/>
       <c r="B55" s="40" t="str">
         <f>RUBRICA!A15</f>
         <v>11. Expone el tema utilizando un lenguaje técnico disciplinar al presentar la propuesta y responde evidenciando un manejo de la información. *</v>
@@ -2789,7 +2793,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A56" s="69"/>
+      <c r="A56" s="70"/>
       <c r="B56" s="40" t="str">
         <f>RUBRICA!A17</f>
         <v>13. Colaboración y trabajo en equipo *</v>
@@ -2831,7 +2835,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A57" s="69"/>
+      <c r="A57" s="70"/>
       <c r="B57" s="22" t="s">
         <v>17</v>
       </c>
@@ -3758,14 +3762,17 @@
     <row r="929" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:K40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C50:K51"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D52:K52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
     <mergeCell ref="A39:A47"/>
     <mergeCell ref="A27:A35"/>
     <mergeCell ref="E2:E3"/>
@@ -3782,17 +3789,14 @@
     <mergeCell ref="D29:K29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D52:K52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C50:K51"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="A50:A58"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:K40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:E6">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
@@ -3827,10 +3831,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7265FB65-E623-2543-BCE2-F5DB101AA68B}">
-  <dimension ref="A2:B4"/>
+  <dimension ref="A2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -3842,26 +3846,50 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="56" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="54" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60">
-      <c r="A4" s="54" t="s">
-        <v>63</v>
+      <c r="A4" s="55" t="s">
+        <v>48</v>
       </c>
       <c r="B4" s="55" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60">
+      <c r="A5" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60">
+      <c r="A6" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="60">
+      <c r="A7" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3873,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC27BBF0-2056-4C6C-A496-F3E7DD799403}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
